--- a/Files/Transacties.xlsx
+++ b/Files/Transacties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\ScoutsWallet\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54855EAD-F973-4FDE-85C5-ED616531F6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA6D5F1-CC58-4763-9AA0-A650C486245C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Files/Transacties.xlsx
+++ b/Files/Transacties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\ScoutsWallet\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA6D5F1-CC58-4763-9AA0-A650C486245C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0046DD-BFB4-497E-9B2F-DFADB24FF68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -86,6 +86,36 @@
   </si>
   <si>
     <t>Allerlei</t>
+  </si>
+  <si>
+    <t>TETRIS</t>
+  </si>
+  <si>
+    <t>popet</t>
+  </si>
+  <si>
+    <t>tyu</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>ZZZ</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>Nieuwjaar</t>
+  </si>
+  <si>
+    <t>Leefweek</t>
   </si>
 </sst>
 </file>
@@ -403,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -1339,6 +1369,1731 @@
         <v>12</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>2324</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>94.75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>2223</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>103.5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>2223</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>94.75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>2223</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>103.5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45">
+        <v>2223</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>94.75</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>2223</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>103.5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>2223</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>94.75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>2223</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>103.5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49">
+        <v>2223</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>94.75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50">
+        <v>2223</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>103.5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51">
+        <v>2223</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>94.75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52">
+        <v>2223</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>103.5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53">
+        <v>2223</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>94.75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54">
+        <v>2223</v>
+      </c>
+      <c r="G54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>103.5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55">
+        <v>2223</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>94.75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56">
+        <v>2223</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>103.5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57">
+        <v>2223</v>
+      </c>
+      <c r="G57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>94.75</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <v>2223</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>103.5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59">
+        <v>2223</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>94.75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60">
+        <v>2223</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>103.5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61">
+        <v>2223</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>94.75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62">
+        <v>2223</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>103.5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63">
+        <v>2223</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>94.75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64">
+        <v>2223</v>
+      </c>
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>103.5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65">
+        <v>2223</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>94.75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <v>2223</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>103.5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67">
+        <v>2223</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>94.75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>2223</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>103.5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69">
+        <v>2223</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>94.75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70">
+        <v>2223</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>103.5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71">
+        <v>2223</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>94.75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72">
+        <v>2223</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>103.5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73">
+        <v>2223</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>94.75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74">
+        <v>2223</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>103.5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75">
+        <v>2223</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>94.75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76">
+        <v>2223</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>103.5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77">
+        <v>2223</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>94.75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>2223</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>103.5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79">
+        <v>2223</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>94.75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80">
+        <v>2223</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>103.5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81">
+        <v>2223</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>94.75</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82">
+        <v>2223</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>103.5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83">
+        <v>2223</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>94.75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84">
+        <v>2223</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>103.5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85">
+        <v>2223</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>94.75</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>2223</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>103.5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87">
+        <v>2223</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>94.75</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88">
+        <v>2223</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>103.5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89">
+        <v>2223</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>94.75</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90">
+        <v>2223</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>103.5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91">
+        <v>2223</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>94.75</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92">
+        <v>2223</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>103.5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93">
+        <v>2223</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>94.75</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94">
+        <v>2223</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>103.5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95">
+        <v>2223</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>94.75</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>2223</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>103.5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97">
+        <v>2223</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>94.75</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98">
+        <v>2223</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99">
+        <v>103.5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99">
+        <v>2223</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>94.75</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>2223</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101">
+        <v>103.5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101">
+        <v>2223</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>94.75</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102">
+        <v>2223</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>103.5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103">
+        <v>2223</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>94.75</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104">
+        <v>2223</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>103.5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105">
+        <v>2223</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106">
+        <v>94.75</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106">
+        <v>2223</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>103.5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107">
+        <v>2223</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>94.75</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108">
+        <v>2223</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>103.5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109">
+        <v>2223</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110">
+        <v>94.75</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110">
+        <v>2223</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111">
+        <v>103.5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111">
+        <v>2223</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112">
+        <v>94.75</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112">
+        <v>2223</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>103.5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113">
+        <v>2223</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114">
+        <v>94.75</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114">
+        <v>2223</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115">
+        <v>103.5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115">
+        <v>2223</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Files/Transacties.xlsx
+++ b/Files/Transacties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\ScoutsWallet\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0046DD-BFB4-497E-9B2F-DFADB24FF68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3151A170-D629-460B-A0FE-9230A55105B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -433,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -3094,6 +3094,328 @@
         <v>12</v>
       </c>
     </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116">
+        <v>94.75</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116">
+        <v>2223</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>103.5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117">
+        <v>2223</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>94.75</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118">
+        <v>2223</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119">
+        <v>103.5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119">
+        <v>2223</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>94.75</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120">
+        <v>2223</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>103.5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121">
+        <v>2223</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122">
+        <v>94.75</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122">
+        <v>2223</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123">
+        <v>103.5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123">
+        <v>2223</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124">
+        <v>94.75</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124">
+        <v>2223</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125">
+        <v>103.5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125">
+        <v>2223</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <v>94.75</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126">
+        <v>2223</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127">
+        <v>103.5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127">
+        <v>2223</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128">
+        <v>94.75</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128">
+        <v>2223</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <v>103.5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129">
+        <v>2223</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
